--- a/TABLA CLIENTES.xlsx
+++ b/TABLA CLIENTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\GitHub\webApp_C4_G27_T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E14B6-6DA5-4B4E-B955-9F73149535C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20150D-B804-402D-ABBC-26F46FC99442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="384" xr2:uid="{8210AED7-C15B-4BEC-A163-F8443844ECE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="384" activeTab="3" xr2:uid="{8210AED7-C15B-4BEC-A163-F8443844ECE7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="220">
   <si>
     <t>Cod_provee</t>
   </si>
@@ -60,9 +60,6 @@
     <t>datamasterjass@gmail.com</t>
   </si>
   <si>
-    <t>PRODUCTOSEXIMP</t>
-  </si>
-  <si>
     <t>EDGEWELL</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>ingridbolanos@effem.com</t>
   </si>
   <si>
-    <t>MASTERFOODSCOLOMBIALTDA</t>
-  </si>
-  <si>
     <t>RECKITTBENCKISER</t>
   </si>
   <si>
@@ -87,39 +81,21 @@
     <t>jorgerios@dersa.com.co</t>
   </si>
   <si>
-    <t>NACIONALDEPILASDEOCCIDENTE</t>
-  </si>
-  <si>
     <t>ventasnalpio@nalpio.com</t>
   </si>
   <si>
-    <t>COLOMBIANAKIMBERLY</t>
-  </si>
-  <si>
     <t>lauraduque@kcc.com</t>
   </si>
   <si>
-    <t>HENKELCOLOMBIA</t>
-  </si>
-  <si>
     <t>mariaguerrero@henkel.com</t>
   </si>
   <si>
-    <t>COLGATEPALMOLIVE</t>
-  </si>
-  <si>
     <t>kalynasanchez@colpal.com</t>
   </si>
   <si>
-    <t>COMESTIBLESALDOR</t>
-  </si>
-  <si>
     <t>jenniferascuntar@aldoronline.com</t>
   </si>
   <si>
-    <t>LAFRANCOLLABORATORIO</t>
-  </si>
-  <si>
     <t>mariaarcos@abbott.com</t>
   </si>
   <si>
@@ -129,33 +105,21 @@
     <t>LuzHerrera@brinsa.com.co</t>
   </si>
   <si>
-    <t>CALACOLOMBIAS.A.S</t>
-  </si>
-  <si>
     <t>morav@grupo-cala.com</t>
   </si>
   <si>
-    <t>PISAFARMACEÚTICA</t>
-  </si>
-  <si>
     <t>Dianadiaz@pisa.com.mx</t>
   </si>
   <si>
     <t>ingridplazas@upfield.com</t>
   </si>
   <si>
-    <t>UPFIELDCOLOMBIASAS</t>
-  </si>
-  <si>
     <t>SANFORDBRANDS</t>
   </si>
   <si>
     <t>Cristinaechavarria@newellco.com</t>
   </si>
   <si>
-    <t>BAYERS.A</t>
-  </si>
-  <si>
     <t>diegomorcillo@bayer.com</t>
   </si>
   <si>
@@ -258,9 +222,6 @@
     <t>SOSA BARBOSA</t>
   </si>
   <si>
-    <t xml:space="preserve">KAREN DAYANA </t>
-  </si>
-  <si>
     <t>FONSECA MORENO</t>
   </si>
   <si>
@@ -288,9 +249,6 @@
     <t>DAZA PULIDO</t>
   </si>
   <si>
-    <t xml:space="preserve">CÉSAR AUGUSTO </t>
-  </si>
-  <si>
     <t>MORENO PEDREROS</t>
   </si>
   <si>
@@ -697,6 +655,48 @@
   </si>
   <si>
     <t>IMAGINARIO</t>
+  </si>
+  <si>
+    <t>PRODUCTOS EXIMP</t>
+  </si>
+  <si>
+    <t>MASTERFOODS COLOMBIA</t>
+  </si>
+  <si>
+    <t>NACIONAL DE PILAS</t>
+  </si>
+  <si>
+    <t>COLOMBIANA KIMBERLY</t>
+  </si>
+  <si>
+    <t>HENKEL COLOMBIA</t>
+  </si>
+  <si>
+    <t>COLGATE PALMOLIVE</t>
+  </si>
+  <si>
+    <t>COMESTIBLES ALDOR</t>
+  </si>
+  <si>
+    <t>CALA COLOMBIA</t>
+  </si>
+  <si>
+    <t>PISA FARMACEÚTICA</t>
+  </si>
+  <si>
+    <t>UPFIELD COLOMBIA</t>
+  </si>
+  <si>
+    <t>BAYER S.A</t>
+  </si>
+  <si>
+    <t>LABORATORIO LA FRANCOL</t>
+  </si>
+  <si>
+    <t>POSTOBON S.A.</t>
+  </si>
+  <si>
+    <t>andresgutierrez@postobon.com.co</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -781,12 +781,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +816,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4049C4-0EDB-4960-AF7F-BC0688C3D9B9}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,375 +1161,375 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1">
+        <v>76</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>210</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D13" s="1">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>213</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>215</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>216</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="2">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="2">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>203</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="2">
-        <v>76</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>204</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="2">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>205</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="2">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>206</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>218</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>219</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="2">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>207</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>208</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="2">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>209</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="2">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>210</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>211</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="2">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>212</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="2">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>213</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="2">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>214</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="2">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>215</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2">
-        <v>54</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>216</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="2">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>217</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>218</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="1">
         <v>26</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="7">
         <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>220</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="1">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
         <v>1500</v>
       </c>
     </row>
@@ -1515,10 +1538,10 @@
         <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
@@ -1532,10 +1555,10 @@
         <v>222</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2">
         <v>98</v>
@@ -1549,10 +1572,10 @@
         <v>223</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>65</v>
@@ -1566,10 +1589,10 @@
         <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D26" s="2">
         <v>35</v>
@@ -1583,10 +1606,10 @@
         <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2">
         <v>45</v>
@@ -1600,10 +1623,10 @@
         <v>226</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2">
         <v>41</v>
@@ -1617,10 +1640,10 @@
         <v>227</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2">
         <v>25</v>
@@ -1634,10 +1657,10 @@
         <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2">
         <v>86</v>
@@ -1651,10 +1674,10 @@
         <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2">
         <v>62</v>
@@ -1668,10 +1691,10 @@
         <v>230</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2">
         <v>42</v>
@@ -1685,10 +1708,10 @@
         <v>231</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D33" s="2">
         <v>87</v>
@@ -1702,10 +1725,10 @@
         <v>232</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2">
         <v>65</v>
@@ -1719,10 +1742,10 @@
         <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2">
         <v>35</v>
@@ -1736,10 +1759,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2">
         <v>5</v>
@@ -1753,10 +1776,10 @@
         <v>235</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D37" s="2">
         <v>47</v>
@@ -1770,10 +1793,10 @@
         <v>236</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2">
         <v>58</v>
@@ -1787,10 +1810,10 @@
         <v>237</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D39" s="2">
         <v>21</v>
@@ -1804,10 +1827,10 @@
         <v>238</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D40" s="2">
         <v>59</v>
@@ -2021,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F32E7-1963-482F-BE1B-FC65FACF0AF9}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,272 +2073,291 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3004824593</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3153298494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3153298494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>3128888667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>3128888667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>3135655185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3135655185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>3145308133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
-        <v>3145308133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>3161229169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="1">
+        <v>3168960970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>3161229169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="1">
+        <v>3172350166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="1">
+        <v>3184634720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
-        <v>3168960970</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D11" s="1">
+        <v>3004323540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D12" s="1">
+        <v>3137773752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
-        <v>3172350166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D13" s="1">
+        <v>3054989535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
-        <v>3184634720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D14" s="1">
+        <v>3208369584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D15" s="1">
+        <v>3157618807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2">
-        <v>3004323540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D16" s="1">
+        <v>3217743023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D17" s="1">
+        <v>3102221201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
-        <v>3137773752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D18" s="1">
+        <v>3156073595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
-        <v>3054989535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D19" s="1">
+        <v>3165246250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2">
-        <v>3208369584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3157618807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3217743023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3102221201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3156073595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3165246250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3162475448</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>119</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3148572365</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{EBC114B2-E6A7-49E8-B463-6AA11C48A9DF}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{0303FF88-E3AF-454D-B735-0930ACE2967E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{FAD991FB-33FA-40AC-8A79-DB61B08F4267}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2324,30 +2366,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CDA900-441E-4218-94F0-491891F233C3}">
   <dimension ref="A1:G887"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2370,7 +2412,7 @@
         <v>64008</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9960,8 +10002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2629706E-E3A9-480E-82CB-7EDF8524FB3C}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9975,19 +10017,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9995,13 +10037,13 @@
         <v>19443413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>3154789654</v>
@@ -10012,13 +10054,13 @@
         <v>45781236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>3125478965</v>
@@ -10029,13 +10071,13 @@
         <v>45952145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>3053014903</v>
@@ -10046,13 +10088,13 @@
         <v>78453215</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>3116960776</v>
@@ -10063,13 +10105,13 @@
         <v>65423652</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>3214567841</v>
@@ -10080,13 +10122,13 @@
         <v>78965478</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2">
         <v>3207587325</v>
@@ -10097,13 +10139,13 @@
         <v>65423656</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2">
         <v>3224512356</v>
@@ -10114,13 +10156,13 @@
         <v>98563241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2">
         <v>3103900666</v>
@@ -10131,13 +10173,13 @@
         <v>78465231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>3206700912</v>
@@ -10148,13 +10190,13 @@
         <v>96587423</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2">
         <v>3207597325</v>
@@ -10165,13 +10207,13 @@
         <v>74513545</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2">
         <v>3184022566</v>
@@ -10182,13 +10224,13 @@
         <v>79856145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2">
         <v>3146613863</v>
@@ -10199,13 +10241,13 @@
         <v>65784511</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>3145562795</v>
@@ -10216,13 +10258,13 @@
         <v>96325452</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2">
         <v>3164521321</v>
@@ -10233,13 +10275,13 @@
         <v>14623994</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2">
         <v>3152477956</v>
@@ -10250,13 +10292,13 @@
         <v>15814789</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2">
         <v>3103450444</v>
@@ -10267,13 +10309,13 @@
         <v>16484145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2">
         <v>3145211264</v>
@@ -10284,13 +10326,13 @@
         <v>16661824</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2">
         <v>3166546135</v>
@@ -10301,13 +10343,13 @@
         <v>16673855</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2">
         <v>3122001427</v>
@@ -10318,13 +10360,13 @@
         <v>16700415</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>3254125856</v>
@@ -10335,13 +10377,13 @@
         <v>16845056</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2">
         <v>3164010620</v>
@@ -10352,13 +10394,13 @@
         <v>19696453</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2">
         <v>3221452112</v>
@@ -10369,13 +10411,13 @@
         <v>21774759</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2">
         <v>3124512587</v>
@@ -10386,13 +10428,13 @@
         <v>24728542</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2">
         <v>3127853474</v>
@@ -10403,13 +10445,13 @@
         <v>24730339</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2">
         <v>3176810751</v>
@@ -10420,13 +10462,13 @@
         <v>29108609</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2">
         <v>3057454426</v>
@@ -10437,13 +10479,13 @@
         <v>31081037</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2">
         <v>3174409868</v>
@@ -10454,13 +10496,13 @@
         <v>32229876</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2">
         <v>3053790016</v>
@@ -10471,13 +10513,13 @@
         <v>38642219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2">
         <v>3105162178</v>
@@ -10488,13 +10530,13 @@
         <v>43403939</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2">
         <v>3132248422</v>
@@ -10505,13 +10547,13 @@
         <v>44861021</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2">
         <v>3134527845</v>
@@ -10522,13 +10564,13 @@
         <v>66815913</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E33" s="2">
         <v>3232853745</v>
@@ -10539,13 +10581,13 @@
         <v>70902587</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E34" s="2">
         <v>3145785921</v>
@@ -10556,13 +10598,13 @@
         <v>72337771</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2">
         <v>3164422350</v>
@@ -10573,13 +10615,13 @@
         <v>75049909</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E36" s="2">
         <v>3154522546</v>
@@ -10590,13 +10632,13 @@
         <v>79885643</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2">
         <v>3162545224</v>
@@ -10607,13 +10649,13 @@
         <v>11447865</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2">
         <v>3113012846</v>
@@ -10624,13 +10666,13 @@
         <v>94428144</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2">
         <v>3206040280</v>
@@ -10641,13 +10683,13 @@
         <v>94458118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2">
         <v>3145228778</v>
